--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/流动负债合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>206.26535</v>
-      </c>
-      <c r="C2" t="n">
-        <v>786.53589</v>
-      </c>
-      <c r="D2" t="n">
-        <v>171.77764</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1113</v>
-      </c>
-      <c r="F2" t="n">
-        <v>155.68129</v>
-      </c>
-      <c r="G2" t="n">
-        <v>596.88495</v>
-      </c>
-      <c r="H2" t="n">
-        <v>161.48208</v>
-      </c>
-      <c r="I2" t="n">
-        <v>227.4293</v>
-      </c>
-      <c r="J2" t="n">
-        <v>123.31046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>416.66498</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11616.66694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>88.05410999999999</v>
-      </c>
-      <c r="N2" t="n">
-        <v>151.43886</v>
-      </c>
-      <c r="O2" t="n">
-        <v>399.61772</v>
-      </c>
-      <c r="P2" t="n">
-        <v>159.7679</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.23905</v>
-      </c>
-      <c r="R2" t="n">
-        <v>404.81562</v>
-      </c>
-      <c r="S2" t="n">
-        <v>120.97845</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>188.52168</v>
-      </c>
-      <c r="V2" t="n">
-        <v>5.03844</v>
-      </c>
-      <c r="W2" t="n">
-        <v>19.50576</v>
-      </c>
-      <c r="X2" t="n">
-        <v>6.18611</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>476.73373</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2283.74047</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>838.93038</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>298.84861</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>74.38802</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3.82584</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>608.53755</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>8.814970000000001</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>365.64058</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>505.91469</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>499.89781</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.42435</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>300.21599</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>389.80648</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>339.48968</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>220.7634</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.38745</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>215.91251</v>
-      </c>
-      <c r="C3" t="n">
-        <v>871.1127</v>
-      </c>
-      <c r="D3" t="n">
-        <v>171.88923</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>166.11839</v>
-      </c>
-      <c r="G3" t="n">
-        <v>633.71658</v>
-      </c>
-      <c r="H3" t="n">
-        <v>122.09889</v>
-      </c>
-      <c r="I3" t="n">
-        <v>257.53617</v>
-      </c>
-      <c r="J3" t="n">
-        <v>184.03714</v>
-      </c>
-      <c r="K3" t="n">
-        <v>446.32655</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12466.42654</v>
-      </c>
-      <c r="M3" t="n">
-        <v>96.21429000000001</v>
-      </c>
-      <c r="N3" t="n">
-        <v>157.42535</v>
-      </c>
-      <c r="O3" t="n">
-        <v>430.88095</v>
-      </c>
-      <c r="P3" t="n">
-        <v>149.72097</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.15151</v>
-      </c>
-      <c r="R3" t="n">
-        <v>419.87753</v>
-      </c>
-      <c r="S3" t="n">
-        <v>125.49446</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>211.68697</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4.74001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>17.49546</v>
-      </c>
-      <c r="X3" t="n">
-        <v>10.76628</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>516.20138</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2573.34888</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>863.99943</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>312.5951</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>149.08345</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.16274</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>636.88782</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>9.803430000000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>385.09615</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>542.15721</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>484.3998</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.16122</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>318.37098</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>404.32117</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>331.35826</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>229.79081</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.48677</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>268.77929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1031.47256</v>
-      </c>
-      <c r="D4" t="n">
-        <v>229.6874</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>192.81094</v>
-      </c>
-      <c r="G4" t="n">
-        <v>717.3126999999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>128.63773</v>
-      </c>
-      <c r="I4" t="n">
-        <v>284.97573</v>
-      </c>
-      <c r="J4" t="n">
-        <v>155.87048</v>
-      </c>
-      <c r="K4" t="n">
-        <v>508.68335</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14146.00988</v>
-      </c>
-      <c r="M4" t="n">
-        <v>110.59011</v>
-      </c>
-      <c r="N4" t="n">
-        <v>190.56016</v>
-      </c>
-      <c r="O4" t="n">
-        <v>518.47969</v>
-      </c>
-      <c r="P4" t="n">
-        <v>175.89099</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.50032</v>
-      </c>
-      <c r="R4" t="n">
-        <v>466.62581</v>
-      </c>
-      <c r="S4" t="n">
-        <v>127.62392</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>223.25917</v>
-      </c>
-      <c r="V4" t="n">
-        <v>5.54884</v>
-      </c>
-      <c r="W4" t="n">
-        <v>34.7294</v>
-      </c>
-      <c r="X4" t="n">
-        <v>13.23847</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>539.5826</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3089.70851</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>915.60883</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>351.45677</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>144.38512</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.52936</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>689.12012</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21.10431</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>452.55423</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>596.27715</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>530.53698</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7.55024</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>350.95892</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>458.55553</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>352.56747</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>241.09872</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.9298</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
